--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\email_gmud_win32\git_repo\automation_email_GMUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFEA507-CF0E-4D9A-B469-5BA61E0E883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE1C936-97B5-47F9-8257-0431A6815F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D65EA13-1847-46C6-A4E9-DD3761C76A9D}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Enviar e-mail</t>
   </si>
   <si>
-    <t>Sucesso</t>
-  </si>
-  <si>
     <t>CHG0126204</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Leonardo Barreto</t>
   </si>
   <si>
-    <t>Insucesso - GETNET</t>
-  </si>
-  <si>
     <t>CHG0125199</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>catapimbas</t>
+  </si>
+  <si>
+    <t>sucesso</t>
+  </si>
+  <si>
+    <t>insucesso</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,46 +672,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -719,13 +719,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="8">
         <v>44895.75</v>
@@ -734,31 +734,31 @@
         <v>44895.958333333336</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -766,13 +766,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="8">
         <v>44895.791666666664</v>
@@ -781,31 +781,31 @@
         <v>44896.333333333336</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
